--- a/scenarios_and_results/Scenario_low_discount_bio_A.xlsx
+++ b/scenarios_and_results/Scenario_low_discount_bio_A.xlsx
@@ -634,34 +634,34 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>3926.887234091596</v>
+        <v>3926.887234091593</v>
       </c>
       <c r="C2">
-        <v>1.099528425545647</v>
+        <v>1.099528425545646</v>
       </c>
       <c r="D2">
-        <v>7.419240282269812</v>
+        <v>7.419240282269808</v>
       </c>
       <c r="E2">
-        <v>7.419240282269812</v>
+        <v>7.419240282269808</v>
       </c>
       <c r="F2">
-        <v>0.07737611919674263</v>
+        <v>0.07737611919674256</v>
       </c>
       <c r="G2">
-        <v>7.419240282269811E-05</v>
+        <v>7.419240282269807E-05</v>
       </c>
       <c r="H2">
-        <v>0.07745031159956532</v>
+        <v>0.07745031159956525</v>
       </c>
       <c r="I2">
-        <v>7.419240282269811E-05</v>
+        <v>7.419240282269807E-05</v>
       </c>
       <c r="J2">
-        <v>7.419240282269812</v>
+        <v>7.419240282269808</v>
       </c>
       <c r="K2">
-        <v>0.07745031159956532</v>
+        <v>0.07745031159956525</v>
       </c>
       <c r="L2">
         <v>0.591760099202662</v>
@@ -670,10 +670,10 @@
         <v>10.43911622388788</v>
       </c>
       <c r="N2">
-        <v>0.2156785227620514</v>
+        <v>0.2156785227620515</v>
       </c>
       <c r="O2">
-        <v>0.2156785227620514</v>
+        <v>0.2156785227620515</v>
       </c>
       <c r="P2">
         <v>0.07745031159946601</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>3.253372640414196</v>
+        <v>3.25174692589027</v>
       </c>
       <c r="X2">
-        <v>4.165867641855617</v>
+        <v>4.167493356379539</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -779,55 +779,55 @@
         <v>2.050653581087216</v>
       </c>
       <c r="D4">
-        <v>4.875582014181204</v>
+        <v>4.875582014181193</v>
       </c>
       <c r="E4">
-        <v>4.875582014181204</v>
+        <v>4.875582014181193</v>
       </c>
       <c r="F4">
-        <v>0.1315433528330902</v>
+        <v>0.1315433528330901</v>
       </c>
       <c r="G4">
-        <v>0.005948210057301069</v>
+        <v>0.005948210057301056</v>
       </c>
       <c r="H4">
         <v>0.1374915628903912</v>
       </c>
       <c r="I4">
-        <v>0.005948210057301069</v>
+        <v>0.005948210057301056</v>
       </c>
       <c r="J4">
-        <v>4.875582014181204</v>
+        <v>4.875582014181193</v>
       </c>
       <c r="K4">
         <v>0.1374915628903912</v>
       </c>
       <c r="L4">
-        <v>0.3888774034286844</v>
+        <v>0.3888774034286837</v>
       </c>
       <c r="M4">
-        <v>28.20003078411579</v>
+        <v>28.20003078411585</v>
       </c>
       <c r="N4">
-        <v>0.2613893651566551</v>
+        <v>0.2613893651566545</v>
       </c>
       <c r="O4">
-        <v>0.2613893651566551</v>
+        <v>0.2613893651566545</v>
       </c>
       <c r="P4">
-        <v>0.1374915628902907</v>
+        <v>0.1374915628902906</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>28.20003078409516</v>
+        <v>28.20003078409522</v>
       </c>
       <c r="S4">
-        <v>28.20003078411579</v>
+        <v>28.20003078411585</v>
       </c>
       <c r="T4">
-        <v>26.98003078411579</v>
+        <v>26.98003078411585</v>
       </c>
       <c r="U4">
         <v>1.22</v>
@@ -836,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>3.473694451803839</v>
+        <v>3.475320166327766</v>
       </c>
       <c r="X4">
-        <v>1.401887562377364</v>
+        <v>1.400261847853427</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -856,31 +856,31 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-2.955857780762017E-18</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>-2.955857780762017E-18</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-3.665263648144901E-20</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-3.665263648144901E-20</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-3.665263648144901E-20</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-2.955857780762017E-18</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-3.665263648144901E-20</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-2.357598119247813E-19</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -892,16 +892,31 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>-4.73414088410867E-20</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
+      <c r="R5">
+        <v>16.01613215263765</v>
+      </c>
+      <c r="S5">
+        <v>12.4</v>
+      </c>
+      <c r="T5">
+        <v>-0</v>
+      </c>
+      <c r="U5">
+        <v>12.4</v>
+      </c>
+      <c r="V5">
+        <v>-0</v>
+      </c>
       <c r="W5">
-        <v>0</v>
+        <v>-1.457903839617244E-18</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>-1.497953941144773E-18</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -912,76 +927,76 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>434.3353745874443</v>
+        <v>434.3353745874446</v>
       </c>
       <c r="C6">
-        <v>0.1788766806700931</v>
+        <v>0.1788766806700932</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3390940710721164</v>
+        <v>0.3390940710721173</v>
       </c>
       <c r="F6">
-        <v>0.01372255392159844</v>
+        <v>0.01372255392159845</v>
       </c>
       <c r="G6">
-        <v>0.001525923319824524</v>
+        <v>0.001525923319824527</v>
       </c>
       <c r="H6">
-        <v>0.01524847724142296</v>
+        <v>0.01524847724142297</v>
       </c>
       <c r="I6">
-        <v>0.0225822216361331</v>
+        <v>0.02258222163613394</v>
       </c>
       <c r="J6">
-        <v>0.2427588825884315</v>
+        <v>0.2427588825884398</v>
       </c>
       <c r="K6">
-        <v>0.03630477555773154</v>
+        <v>0.03630477555773239</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>149.5507606997925</v>
+        <v>149.5507606997908</v>
       </c>
       <c r="N6">
-        <v>0.06380369371260085</v>
+        <v>0.063803693712603</v>
       </c>
       <c r="O6">
-        <v>0.08912322391566009</v>
+        <v>0.08912322391566026</v>
       </c>
       <c r="P6">
-        <v>0.04679211175976769</v>
+        <v>0.0467921117597678</v>
       </c>
       <c r="Q6">
-        <v>0.03154363451833642</v>
+        <v>0.03154363451833649</v>
       </c>
       <c r="R6">
-        <v>137.9915361298554</v>
+        <v>137.9915361298553</v>
       </c>
       <c r="S6">
-        <v>137.9915361298309</v>
+        <v>137.9915361298307</v>
       </c>
       <c r="T6">
-        <v>40.46828031587734</v>
+        <v>40.46828031587726</v>
       </c>
       <c r="U6">
-        <v>4.500000000000003</v>
+        <v>4.499999999999999</v>
       </c>
       <c r="V6">
-        <v>93.02325581395351</v>
+        <v>93.0232558139535</v>
       </c>
       <c r="W6">
-        <v>0.3368817741214661</v>
+        <v>0.3368817741214669</v>
       </c>
       <c r="X6">
-        <v>0.002212296950650284</v>
+        <v>0.002212296950650337</v>
       </c>
       <c r="Y6">
-        <v>0.09633518848368487</v>
+        <v>0.09633518848367742</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1312,7 +1327,7 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>2.168863342278647</v>
+        <v>2.168863342278645</v>
       </c>
       <c r="C4">
         <v>0.8701134201601958</v>
@@ -1321,7 +1336,7 @@
         <v>0.8701134201605557</v>
       </c>
       <c r="E4">
-        <v>135.3987459812874</v>
+        <v>135.3987459812873</v>
       </c>
       <c r="F4">
         <v>12.52634299800384</v>
@@ -1330,37 +1345,37 @@
         <v>14.39621859376959</v>
       </c>
       <c r="H4">
-        <v>1.6960511336612</v>
+        <v>1.696051133661199</v>
       </c>
       <c r="I4">
-        <v>1.6960511336612</v>
+        <v>1.696051133661199</v>
       </c>
       <c r="J4">
         <v>0.06894970823244569</v>
       </c>
       <c r="K4">
-        <v>0.0016960511336612</v>
+        <v>0.001696051133661199</v>
       </c>
       <c r="L4">
         <v>0.07064575936610688</v>
       </c>
       <c r="M4">
-        <v>0.01946215976007288</v>
+        <v>0.01946215976007267</v>
       </c>
       <c r="N4">
-        <v>0.09010791912618474</v>
+        <v>0.09010791912618428</v>
       </c>
       <c r="O4">
-        <v>1.6960511336612</v>
+        <v>1.696051133661199</v>
       </c>
       <c r="P4">
-        <v>53.12806750800447</v>
+        <v>53.12806750800438</v>
       </c>
       <c r="Q4">
-        <v>0.2845458233294952</v>
+        <v>0.284545823329495</v>
       </c>
       <c r="R4">
-        <v>0.2225148338434812</v>
+        <v>0.222514833843481</v>
       </c>
       <c r="S4">
         <v>1.590357815118743</v>
@@ -1369,19 +1384,19 @@
         <v>0.9252090019247393</v>
       </c>
       <c r="U4">
-        <v>0.665148813194004</v>
+        <v>0.6651488131940041</v>
       </c>
       <c r="V4">
-        <v>53.1280675080074</v>
+        <v>53.12806750800717</v>
       </c>
       <c r="W4">
-        <v>40.65308342656309</v>
+        <v>40.65308342656312</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>11.47498408144138</v>
+        <v>11.47498408144126</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1389,13 +1404,13 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>3.347602049131045</v>
+        <v>3.34760204913103</v>
       </c>
       <c r="C5">
-        <v>0.8452946279480535</v>
+        <v>0.8452946279480522</v>
       </c>
       <c r="D5">
-        <v>0.6255180246815596</v>
+        <v>0.6255180246815586</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1413,52 +1428,52 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03174852625500391</v>
+        <v>0.03174852625500386</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.03174852625500391</v>
+        <v>0.03174852625500386</v>
       </c>
       <c r="M5">
-        <v>0.03252348295250089</v>
+        <v>0.03252348295250102</v>
       </c>
       <c r="N5">
-        <v>0.06427200920748154</v>
+        <v>0.06427200920748212</v>
       </c>
       <c r="O5">
-        <v>2.477225516356973</v>
+        <v>2.477225516356963</v>
       </c>
       <c r="P5">
-        <v>25.94515872015711</v>
+        <v>25.94515872015725</v>
       </c>
       <c r="Q5">
-        <v>0.4520865743204682</v>
+        <v>0.4520865743204669</v>
       </c>
       <c r="R5">
-        <v>0.4520865743204682</v>
+        <v>0.452086574320467</v>
       </c>
       <c r="S5">
-        <v>0.3803825825766241</v>
+        <v>0.3803825825766235</v>
       </c>
       <c r="T5">
-        <v>0.3803825825766241</v>
+        <v>0.3803825825766235</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>25.94515872014771</v>
+        <v>25.94515872014805</v>
       </c>
       <c r="W5">
-        <v>12.81616310076345</v>
+        <v>12.81616310076348</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>13.12899561939366</v>
+        <v>13.12899561939376</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1466,22 +1481,22 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>0.05350210977394001</v>
+        <v>0.05350210977393981</v>
       </c>
       <c r="C6">
-        <v>0.3626505548048838</v>
+        <v>0.3626505548048834</v>
       </c>
       <c r="D6">
-        <v>0.2928915662555859</v>
+        <v>0.2928915662555844</v>
       </c>
       <c r="E6">
-        <v>23.75998685372901</v>
+        <v>23.75998685372904</v>
       </c>
       <c r="F6">
-        <v>45.03547085552628</v>
+        <v>45.0354708555261</v>
       </c>
       <c r="G6">
-        <v>153.7615829341668</v>
+        <v>153.761582934167</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1490,52 +1505,52 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01149656371547878</v>
+        <v>0.01149656371547873</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01149656371547878</v>
+        <v>0.01149656371547873</v>
       </c>
       <c r="M6">
-        <v>0.03057324697721213</v>
+        <v>0.03057324697721249</v>
       </c>
       <c r="N6">
-        <v>0.04206981069269222</v>
+        <v>0.04206981069269251</v>
       </c>
       <c r="O6">
-        <v>1.0700421954788</v>
+        <v>1.070042195478798</v>
       </c>
       <c r="P6">
-        <v>39.31602965793922</v>
+        <v>39.31602965793962</v>
       </c>
       <c r="Q6">
-        <v>0.3536696156546468</v>
+        <v>0.3536696156546459</v>
       </c>
       <c r="R6">
-        <v>0.4170517339183066</v>
+        <v>0.4170517339183077</v>
       </c>
       <c r="S6">
-        <v>0.1237364975349342</v>
+        <v>0.1237364975349337</v>
       </c>
       <c r="T6">
-        <v>0.002140726225013229</v>
+        <v>0.002140726225013227</v>
       </c>
       <c r="U6">
-        <v>0.121595771309921</v>
+        <v>0.1215957713099205</v>
       </c>
       <c r="V6">
-        <v>39.31602965794045</v>
+        <v>39.31602965794082</v>
       </c>
       <c r="W6">
-        <v>10.74402837949258</v>
+        <v>10.74402837949257</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>28.57200127844664</v>
+        <v>28.57200127844705</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1546,19 +1561,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04289156625558589</v>
+        <v>0.04289156625558439</v>
       </c>
       <c r="D7">
         <v>1.010082266482429</v>
       </c>
       <c r="E7">
-        <v>1.603249259645815</v>
+        <v>1.696410137546901</v>
       </c>
       <c r="F7">
-        <v>139.7382975274689</v>
+        <v>132.0643617345032</v>
       </c>
       <c r="G7">
-        <v>138.3434816790735</v>
+        <v>130.7461442664586</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1567,37 +1582,37 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.001583112332558863</v>
+        <v>0.001583112332482068</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.001583112332558863</v>
+        <v>0.001583112332482068</v>
       </c>
       <c r="M7">
-        <v>0.007378300551037695</v>
+        <v>0.007378300551037497</v>
       </c>
       <c r="N7">
-        <v>0.008961412882203245</v>
+        <v>0.008961412882202889</v>
       </c>
       <c r="O7">
-        <v>0.2240353220550811</v>
+        <v>0.2240353220550722</v>
       </c>
       <c r="P7">
-        <v>40.00000000621917</v>
+        <v>40.00000000587709</v>
       </c>
       <c r="Q7">
-        <v>0.7644463426355343</v>
+        <v>0.7644463426355358</v>
       </c>
       <c r="R7">
-        <v>0.02531953020305924</v>
+        <v>0.02531953020305822</v>
       </c>
       <c r="S7">
-        <v>0.01607796487631371</v>
+        <v>0.01607796487631315</v>
       </c>
       <c r="T7">
-        <v>0.01607796487631371</v>
+        <v>0.01607796487631315</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1606,13 +1621,13 @@
         <v>40</v>
       </c>
       <c r="W7">
-        <v>7.066351493313364</v>
+        <v>7.066351492970866</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>32.9336485129058</v>
+        <v>32.93364851290622</v>
       </c>
     </row>
     <row r="8" spans="1:25">

--- a/scenarios_and_results/Scenario_low_discount_bio_A.xlsx
+++ b/scenarios_and_results/Scenario_low_discount_bio_A.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>generator_installed_capacity</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>FC</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
   <si>
     <t>storage_el_in</t>
@@ -634,64 +637,64 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>3926.887234091593</v>
+        <v>3926.8872340916</v>
       </c>
       <c r="C2">
-        <v>1.099528425545646</v>
+        <v>1.099528425545648</v>
       </c>
       <c r="D2">
-        <v>7.419240282269808</v>
+        <v>7.419240282269819</v>
       </c>
       <c r="E2">
-        <v>7.419240282269808</v>
+        <v>7.419240282269819</v>
       </c>
       <c r="F2">
-        <v>0.07737611919674256</v>
+        <v>0.07737611919674271</v>
       </c>
       <c r="G2">
-        <v>7.419240282269807E-05</v>
+        <v>7.419240282269821E-05</v>
       </c>
       <c r="H2">
-        <v>0.07745031159956525</v>
+        <v>0.07745031159956541</v>
       </c>
       <c r="I2">
-        <v>7.419240282269807E-05</v>
+        <v>7.419240282269821E-05</v>
       </c>
       <c r="J2">
-        <v>7.419240282269808</v>
+        <v>7.419240282269819</v>
       </c>
       <c r="K2">
-        <v>0.07745031159956525</v>
+        <v>0.07745031159956541</v>
       </c>
       <c r="L2">
-        <v>0.591760099202662</v>
+        <v>0.5917600992026626</v>
       </c>
       <c r="M2">
-        <v>10.43911622388788</v>
+        <v>10.43911622388789</v>
       </c>
       <c r="N2">
-        <v>0.2156785227620515</v>
+        <v>0.2156785227620514</v>
       </c>
       <c r="O2">
-        <v>0.2156785227620515</v>
+        <v>0.2156785227620514</v>
       </c>
       <c r="P2">
-        <v>0.07745031159946601</v>
+        <v>0.07745031159946615</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>10.4391162238745</v>
+        <v>10.43911622387451</v>
       </c>
       <c r="S2">
-        <v>10.43911622388788</v>
+        <v>10.43911622388789</v>
       </c>
       <c r="T2">
-        <v>10.42911622388788</v>
+        <v>10.42911622388789</v>
       </c>
       <c r="U2">
-        <v>0.009999999999999998</v>
+        <v>0.01</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -700,7 +703,7 @@
         <v>3.25174692589027</v>
       </c>
       <c r="X2">
-        <v>4.167493356379539</v>
+        <v>4.16749335637955</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -773,10 +776,10 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>2129.28819409515</v>
+        <v>2129.288194095146</v>
       </c>
       <c r="C4">
-        <v>2.050653581087216</v>
+        <v>2.050653581087212</v>
       </c>
       <c r="D4">
         <v>4.875582014181193</v>
@@ -785,13 +788,13 @@
         <v>4.875582014181193</v>
       </c>
       <c r="F4">
-        <v>0.1315433528330901</v>
+        <v>0.1315433528330899</v>
       </c>
       <c r="G4">
         <v>0.005948210057301056</v>
       </c>
       <c r="H4">
-        <v>0.1374915628903912</v>
+        <v>0.1374915628903909</v>
       </c>
       <c r="I4">
         <v>0.005948210057301056</v>
@@ -800,34 +803,34 @@
         <v>4.875582014181193</v>
       </c>
       <c r="K4">
-        <v>0.1374915628903912</v>
+        <v>0.1374915628903909</v>
       </c>
       <c r="L4">
-        <v>0.3888774034286837</v>
+        <v>0.3888774034286835</v>
       </c>
       <c r="M4">
-        <v>28.20003078411585</v>
+        <v>28.2000307841158</v>
       </c>
       <c r="N4">
-        <v>0.2613893651566545</v>
+        <v>0.261389365156655</v>
       </c>
       <c r="O4">
-        <v>0.2613893651566545</v>
+        <v>0.261389365156655</v>
       </c>
       <c r="P4">
-        <v>0.1374915628902906</v>
+        <v>0.1374915628902904</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>28.20003078409522</v>
+        <v>28.20003078409517</v>
       </c>
       <c r="S4">
-        <v>28.20003078411585</v>
+        <v>28.2000307841158</v>
       </c>
       <c r="T4">
-        <v>26.98003078411585</v>
+        <v>26.98003078411579</v>
       </c>
       <c r="U4">
         <v>1.22</v>
@@ -836,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>3.475320166327766</v>
+        <v>3.475320166327763</v>
       </c>
       <c r="X4">
-        <v>1.400261847853427</v>
+        <v>1.400261847853431</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -856,67 +859,67 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-2.955857780762017E-18</v>
+        <v>1.664989199024492E-17</v>
       </c>
       <c r="E5">
-        <v>-2.955857780762017E-18</v>
+        <v>1.664989199024492E-17</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>-3.665263648144901E-20</v>
+        <v>2.06458660679037E-19</v>
       </c>
       <c r="H5">
-        <v>-3.665263648144901E-20</v>
+        <v>2.06458660679037E-19</v>
       </c>
       <c r="I5">
-        <v>-3.665263648144901E-20</v>
+        <v>2.06458660679037E-19</v>
       </c>
       <c r="J5">
-        <v>-2.955857780762017E-18</v>
+        <v>1.664989199024492E-17</v>
       </c>
       <c r="K5">
-        <v>-3.665263648144901E-20</v>
+        <v>2.06458660679037E-19</v>
       </c>
       <c r="L5">
-        <v>-2.357598119247813E-19</v>
+        <v>1.327998738550982E-18</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
+        <v>12.4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
       </c>
       <c r="P5">
-        <v>-4.73414088410867E-20</v>
+        <v>2.666668704429062E-19</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>16.01613215263765</v>
+        <v>16.01613215263768</v>
       </c>
       <c r="S5">
         <v>12.4</v>
       </c>
       <c r="T5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>12.4</v>
       </c>
       <c r="V5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-1.457903839617244E-18</v>
+        <v>8.212147965905315E-18</v>
       </c>
       <c r="X5">
-        <v>-1.497953941144773E-18</v>
+        <v>8.437744024339599E-18</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -936,67 +939,67 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3390940710721173</v>
+        <v>0.3390940710721177</v>
       </c>
       <c r="F6">
-        <v>0.01372255392159845</v>
+        <v>0.01372255392159844</v>
       </c>
       <c r="G6">
-        <v>0.001525923319824527</v>
+        <v>0.00152592331982453</v>
       </c>
       <c r="H6">
         <v>0.01524847724142297</v>
       </c>
       <c r="I6">
-        <v>0.02258222163613394</v>
+        <v>0.02258222163613349</v>
       </c>
       <c r="J6">
-        <v>0.2427588825884398</v>
+        <v>0.242758882588435</v>
       </c>
       <c r="K6">
-        <v>0.03630477555773239</v>
+        <v>0.03630477555773193</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>149.5507606997908</v>
+        <v>149.5507606997919</v>
       </c>
       <c r="N6">
-        <v>0.063803693712603</v>
+        <v>0.06380369371260175</v>
       </c>
       <c r="O6">
-        <v>0.08912322391566026</v>
+        <v>0.0891232239156604</v>
       </c>
       <c r="P6">
-        <v>0.0467921117597678</v>
+        <v>0.04679211175976783</v>
       </c>
       <c r="Q6">
-        <v>0.03154363451833649</v>
+        <v>0.03154363451833653</v>
       </c>
       <c r="R6">
-        <v>137.9915361298553</v>
+        <v>137.9915361298552</v>
       </c>
       <c r="S6">
         <v>137.9915361298307</v>
       </c>
       <c r="T6">
-        <v>40.46828031587726</v>
+        <v>40.46828031587719</v>
       </c>
       <c r="U6">
-        <v>4.499999999999999</v>
+        <v>4.500000000000001</v>
       </c>
       <c r="V6">
-        <v>93.0232558139535</v>
+        <v>93.02325581395348</v>
       </c>
       <c r="W6">
-        <v>0.3368817741214669</v>
+        <v>0.3368817741214674</v>
       </c>
       <c r="X6">
-        <v>0.002212296950650337</v>
+        <v>0.002212296950650297</v>
       </c>
       <c r="Y6">
-        <v>0.09633518848367742</v>
+        <v>0.09633518848368268</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1138,64 +1141,64 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>16</v>
@@ -1212,7 +1215,7 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1268,7 +1271,7 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1324,93 +1327,93 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4">
-        <v>2.168863342278645</v>
+        <v>2.168863342278649</v>
       </c>
       <c r="C4">
-        <v>0.8701134201601958</v>
+        <v>0.8701134201601961</v>
       </c>
       <c r="D4">
-        <v>0.8701134201605557</v>
+        <v>0.870113420160556</v>
       </c>
       <c r="E4">
-        <v>135.3987459812873</v>
+        <v>135.3987459812875</v>
       </c>
       <c r="F4">
         <v>12.52634299800384</v>
       </c>
       <c r="G4">
-        <v>14.39621859376959</v>
+        <v>14.39621859376958</v>
       </c>
       <c r="H4">
-        <v>1.696051133661199</v>
+        <v>1.696051133661202</v>
       </c>
       <c r="I4">
-        <v>1.696051133661199</v>
+        <v>1.696051133661202</v>
       </c>
       <c r="J4">
-        <v>0.06894970823244569</v>
+        <v>0.0689497082324457</v>
       </c>
       <c r="K4">
-        <v>0.001696051133661199</v>
+        <v>0.001696051133661202</v>
       </c>
       <c r="L4">
-        <v>0.07064575936610688</v>
+        <v>0.0706457593661069</v>
       </c>
       <c r="M4">
-        <v>0.01946215976007267</v>
+        <v>0.01946215976007271</v>
       </c>
       <c r="N4">
-        <v>0.09010791912618428</v>
+        <v>0.09010791912618435</v>
       </c>
       <c r="O4">
-        <v>1.696051133661199</v>
+        <v>1.696051133661202</v>
       </c>
       <c r="P4">
-        <v>53.12806750800438</v>
+        <v>53.12806750800433</v>
       </c>
       <c r="Q4">
-        <v>0.284545823329495</v>
+        <v>0.2845458233294953</v>
       </c>
       <c r="R4">
-        <v>0.222514833843481</v>
+        <v>0.2225148338434813</v>
       </c>
       <c r="S4">
-        <v>1.590357815118743</v>
+        <v>1.590357815118744</v>
       </c>
       <c r="T4">
-        <v>0.9252090019247393</v>
+        <v>0.9252090019247398</v>
       </c>
       <c r="U4">
         <v>0.6651488131940041</v>
       </c>
       <c r="V4">
-        <v>53.12806750800717</v>
+        <v>53.12806750800712</v>
       </c>
       <c r="W4">
-        <v>40.65308342656312</v>
+        <v>40.65308342656306</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>11.47498408144126</v>
+        <v>11.47498408144127</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5">
-        <v>3.34760204913103</v>
+        <v>3.347602049131043</v>
       </c>
       <c r="C5">
-        <v>0.8452946279480522</v>
+        <v>0.8452946279480549</v>
       </c>
       <c r="D5">
-        <v>0.6255180246815586</v>
+        <v>0.6255180246815606</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1428,75 +1431,75 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03174852625500386</v>
+        <v>0.03174852625500397</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.03174852625500386</v>
+        <v>0.03174852625500397</v>
       </c>
       <c r="M5">
-        <v>0.03252348295250102</v>
+        <v>0.03252348295250099</v>
       </c>
       <c r="N5">
-        <v>0.06427200920748212</v>
+        <v>0.0642720092074822</v>
       </c>
       <c r="O5">
-        <v>2.477225516356963</v>
+        <v>2.477225516356972</v>
       </c>
       <c r="P5">
-        <v>25.94515872015725</v>
+        <v>25.94515872015717</v>
       </c>
       <c r="Q5">
-        <v>0.4520865743204669</v>
+        <v>0.4520865743204672</v>
       </c>
       <c r="R5">
-        <v>0.452086574320467</v>
+        <v>0.4520865743204673</v>
       </c>
       <c r="S5">
-        <v>0.3803825825766235</v>
+        <v>0.3803825825766247</v>
       </c>
       <c r="T5">
-        <v>0.3803825825766235</v>
+        <v>0.3803825825766247</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>25.94515872014805</v>
+        <v>25.94515872014799</v>
       </c>
       <c r="W5">
-        <v>12.81616310076348</v>
+        <v>12.81616310076347</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>13.12899561939376</v>
+        <v>13.1289956193937</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6">
-        <v>0.05350210977393981</v>
+        <v>0.05350210977394006</v>
       </c>
       <c r="C6">
-        <v>0.3626505548048834</v>
+        <v>0.362650554804885</v>
       </c>
       <c r="D6">
-        <v>0.2928915662555844</v>
+        <v>0.2928915662555857</v>
       </c>
       <c r="E6">
-        <v>23.75998685372904</v>
+        <v>23.75998685372902</v>
       </c>
       <c r="F6">
-        <v>45.0354708555261</v>
+        <v>45.03547085552624</v>
       </c>
       <c r="G6">
-        <v>153.761582934167</v>
+        <v>153.7615829341668</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1505,75 +1508,75 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01149656371547873</v>
+        <v>0.01149656371547877</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01149656371547873</v>
+        <v>0.01149656371547877</v>
       </c>
       <c r="M6">
-        <v>0.03057324697721249</v>
+        <v>0.03057324697721252</v>
       </c>
       <c r="N6">
-        <v>0.04206981069269251</v>
+        <v>0.04206981069269256</v>
       </c>
       <c r="O6">
-        <v>1.070042195478798</v>
+        <v>1.0700421954788</v>
       </c>
       <c r="P6">
-        <v>39.31602965793962</v>
+        <v>39.31602965793959</v>
       </c>
       <c r="Q6">
-        <v>0.3536696156546459</v>
+        <v>0.3536696156546461</v>
       </c>
       <c r="R6">
-        <v>0.4170517339183077</v>
+        <v>0.4170517339183069</v>
       </c>
       <c r="S6">
-        <v>0.1237364975349337</v>
+        <v>0.1237364975349341</v>
       </c>
       <c r="T6">
-        <v>0.002140726225013227</v>
+        <v>0.002140726225013236</v>
       </c>
       <c r="U6">
-        <v>0.1215957713099205</v>
+        <v>0.1215957713099208</v>
       </c>
       <c r="V6">
-        <v>39.31602965794082</v>
+        <v>39.31602965794077</v>
       </c>
       <c r="W6">
-        <v>10.74402837949257</v>
+        <v>10.74402837949258</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>28.57200127844705</v>
+        <v>28.57200127844701</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04289156625558439</v>
+        <v>0.04289156625558564</v>
       </c>
       <c r="D7">
         <v>1.010082266482429</v>
       </c>
       <c r="E7">
-        <v>1.696410137546901</v>
+        <v>1.696410137546851</v>
       </c>
       <c r="F7">
-        <v>132.0643617345032</v>
+        <v>132.0643617345143</v>
       </c>
       <c r="G7">
-        <v>130.7461442664586</v>
+        <v>130.7461442664696</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1582,57 +1585,57 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.001583112332482068</v>
+        <v>0.001583112332482114</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.001583112332482068</v>
+        <v>0.001583112332482114</v>
       </c>
       <c r="M7">
-        <v>0.007378300551037497</v>
+        <v>0.007378300551037677</v>
       </c>
       <c r="N7">
-        <v>0.008961412882202889</v>
+        <v>0.00896141288220338</v>
       </c>
       <c r="O7">
-        <v>0.2240353220550722</v>
+        <v>0.2240353220550845</v>
       </c>
       <c r="P7">
-        <v>40.00000000587709</v>
+        <v>40.00000000587591</v>
       </c>
       <c r="Q7">
-        <v>0.7644463426355358</v>
+        <v>0.7644463426355327</v>
       </c>
       <c r="R7">
-        <v>0.02531953020305822</v>
+        <v>0.0253195302030596</v>
       </c>
       <c r="S7">
-        <v>0.01607796487631315</v>
+        <v>0.01607796487631362</v>
       </c>
       <c r="T7">
-        <v>0.01607796487631315</v>
+        <v>0.01607796487631362</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>40</v>
+        <v>40.00000000000001</v>
       </c>
       <c r="W7">
-        <v>7.066351492970866</v>
+        <v>7.066351492970684</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>32.93364851290622</v>
+        <v>32.93364851290523</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1691,7 +1694,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1750,7 +1753,7 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10">
         <v>0</v>
